--- a/Test Data Driven/AI-Generated/TC20-Terminate Multiple Test Runs.xlsx
+++ b/Test Data Driven/AI-Generated/TC20-Terminate Multiple Test Runs.xlsx
@@ -457,68 +457,68 @@
     <col width="78" customWidth="1" min="9" max="9"/>
     <col width="78" customWidth="1" min="10" max="10"/>
     <col width="78" customWidth="1" min="11" max="11"/>
-    <col width="42" customWidth="1" min="12" max="12"/>
+    <col width="50" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_class</t>
+          <t>input_rowSelectionCheckbox_class</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_class_1</t>
+          <t>input_rowSelectionCheckbox_class_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_class_2</t>
+          <t>input_rowSelectionCheckbox_class_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_class_3</t>
+          <t>input_rowSelectionCheckbox_class_3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_class_4</t>
+          <t>input_rowSelectionCheckbox_class_4</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_class_5</t>
+          <t>input_rowSelectionCheckbox_class_5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_internalRoleRowName</t>
+          <t>input_rowSelectionCheckbox_internalRoleRowName</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_internalRoleRowName_1</t>
+          <t>input_rowSelectionCheckbox_internalRoleRowName_1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_internalRoleRowName_2</t>
+          <t>input_rowSelectionCheckbox_internalRoleRowName_2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_internalRoleRowName_3</t>
+          <t>input_rowSelectionCheckbox_internalRoleRowName_3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_internalRoleRowName_4</t>
+          <t>input_rowSelectionCheckbox_internalRoleRowName_4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>input_rowSelection_internalRoleRowName_5</t>
+          <t>input_rowSelectionCheckbox_internalRoleRowName_5</t>
         </is>
       </c>
     </row>
